--- a/pred_ohlcv/54_21/2020-01-21 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 TRV ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>-3339471.0692</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3785527.025400001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3582833.7903</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3588093.7903</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3574409.893600001</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3905308.639</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3905308.639</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4088651.9057</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3353006.6242</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3513778.955800001</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3903467.784300001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3904682.275000001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3904682.275000001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3945715.939600001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>682157.1495472339</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>592131.288147234</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-359494.846152766</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 TRV ohlcv.xlsx
@@ -1302,7 +1302,7 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3743930.5214</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3785527.025400001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3582833.7903</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3588093.7903</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3574409.893600001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3552103.475300001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3530966.922300001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3905438.7171</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3905308.639</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3905308.639</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4088651.9057</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4095279.1587</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4140276.2963</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3662760.1369</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3535268.393600001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-3343006.6242</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3353006.6242</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3380409.8654</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3513778.955800001</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3501414.107600001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3486537.649700001</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3915782.305700001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1315426.303847234</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1088404.407347234</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>907370.3891472339</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1013234.428347234</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>803237.0422472339</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>830132.5295472339</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>612012.922947234</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>612372.149247234</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>166120.116647234</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-359494.846152766</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-661049.0225527659</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
